--- a/260-location-status/ig/StructureDefinition-ror-contact-function-contact.xlsx
+++ b/260-location-status/ig/StructureDefinition-ror-contact-function-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-08T13:44:12+00:00</t>
+    <t>2024-02-09T14:30:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/260-location-status/ig/StructureDefinition-ror-contact-function-contact.xlsx
+++ b/260-location-status/ig/StructureDefinition-ror-contact-function-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-02T15:56:22+00:00</t>
+    <t>2024-05-02T16:52:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
